--- a/LOGS/26cd4795-4ed5-49af-a3d7-5dc6826a64bc/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/26cd4795-4ed5-49af-a3d7-5dc6826a64bc/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -17,13 +17,14 @@
     <sheet name="5_(b)_b4a9a065-b563-" sheetId="8" r:id="rId8"/>
     <sheet name="5_(b)_9e18a0bb-55d8-" sheetId="9" r:id="rId9"/>
     <sheet name="6__2d930aad-9df8-372" sheetId="10" r:id="rId10"/>
+    <sheet name="7__c0904331-c00d-39b" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="98">
   <si>
     <t>line_item_0</t>
   </si>
@@ -311,6 +312,12 @@
   </si>
   <si>
     <t>in calculating taxable income:</t>
+  </si>
+  <si>
+    <t>Cash at bank and in hand</t>
+  </si>
+  <si>
+    <t>Term deposit</t>
   </si>
 </sst>
 </file>
@@ -1373,6 +1380,120 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2">
+        <v>14502614</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3">
+        <v>2368905</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>16871519</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>13525659</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>

--- a/LOGS/26cd4795-4ed5-49af-a3d7-5dc6826a64bc/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/26cd4795-4ed5-49af-a3d7-5dc6826a64bc/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -12,19 +12,26 @@
     <sheet name="11__3d7aa904-7abf-34" sheetId="3" r:id="rId3"/>
     <sheet name="13__72335360-0cc6-3c" sheetId="4" r:id="rId4"/>
     <sheet name="13__d7988c4f-d09c-3b" sheetId="5" r:id="rId5"/>
-    <sheet name="4__6a10f31e-b6a9-313" sheetId="6" r:id="rId6"/>
-    <sheet name="5_(a)_6a10f31e-b6a9-" sheetId="7" r:id="rId7"/>
-    <sheet name="5_(b)_b4a9a065-b563-" sheetId="8" r:id="rId8"/>
-    <sheet name="5_(b)_9e18a0bb-55d8-" sheetId="9" r:id="rId9"/>
-    <sheet name="6__2d930aad-9df8-372" sheetId="10" r:id="rId10"/>
-    <sheet name="7__c0904331-c00d-39b" sheetId="11" r:id="rId11"/>
+    <sheet name="14__a6ee8afd-b658-39" sheetId="6" r:id="rId6"/>
+    <sheet name="14__656e2f63-0153-36" sheetId="7" r:id="rId7"/>
+    <sheet name="15__a6ee8afd-b658-39" sheetId="8" r:id="rId8"/>
+    <sheet name="17__b4a9a065-b563-3c" sheetId="9" r:id="rId9"/>
+    <sheet name="18_(b)_9e18a0bb-55d8" sheetId="10" r:id="rId10"/>
+    <sheet name="18_(b)_f4ef0d64-df7d" sheetId="11" r:id="rId11"/>
+    <sheet name="18_(b)_a82f3cbc-2a70" sheetId="12" r:id="rId12"/>
+    <sheet name="4__6a10f31e-b6a9-313" sheetId="13" r:id="rId13"/>
+    <sheet name="5_(a)_6a10f31e-b6a9-" sheetId="14" r:id="rId14"/>
+    <sheet name="5_(b)_b4a9a065-b563-" sheetId="15" r:id="rId15"/>
+    <sheet name="5_(b)_9e18a0bb-55d8-" sheetId="16" r:id="rId16"/>
+    <sheet name="6__2d930aad-9df8-372" sheetId="17" r:id="rId17"/>
+    <sheet name="7__c0904331-c00d-39b" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="108">
   <si>
     <t>line_item_0</t>
   </si>
@@ -155,6 +162,69 @@
     <t>Total $</t>
   </si>
   <si>
+    <t>Financial liabilities measured at amortised cost</t>
+  </si>
+  <si>
+    <t>Non-financial liabilities</t>
+  </si>
+  <si>
+    <t>Trade payables</t>
+  </si>
+  <si>
+    <t>Accrued expenses</t>
+  </si>
+  <si>
+    <t>Other payables</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Employee benefits annual leave</t>
+  </si>
+  <si>
+    <t>Employee benefits - long service leave</t>
+  </si>
+  <si>
+    <t>Total employee benefit obligations</t>
+  </si>
+  <si>
+    <t>2023 Shares</t>
+  </si>
+  <si>
+    <t>Fully paid 25,467,389</t>
+  </si>
+  <si>
+    <t>(a) Share capital</t>
+  </si>
+  <si>
+    <t>Ordinary shares</t>
+  </si>
+  <si>
+    <t>Balance 1 April</t>
+  </si>
+  <si>
+    <t>Net profit for the year</t>
+  </si>
+  <si>
+    <t>Balance 31 March</t>
+  </si>
+  <si>
+    <t>Franking credits available for subsequent reporting periods based on a tax rate of 30.0% (2022 30.0%)</t>
+  </si>
+  <si>
+    <t>Franked dividends</t>
+  </si>
+  <si>
+    <t>Total remuneration for audit and other assurance services</t>
+  </si>
+  <si>
     <t>Interest income</t>
   </si>
   <si>
@@ -164,15 +234,6 @@
     <t>Other income</t>
   </si>
   <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>Net foreign exchange losses</t>
   </si>
   <si>
@@ -206,12 +267,6 @@
     <t>At 31 March 2023 3,533</t>
   </si>
   <si>
-    <t>2023 Shares</t>
-  </si>
-  <si>
-    <t>Fully paid 25,467,389</t>
-  </si>
-  <si>
     <t>Accrued interest receivable $ (278)</t>
   </si>
   <si>
@@ -233,15 +288,12 @@
     <t>The balance comprises temporary differences attributable to:</t>
   </si>
   <si>
+    <t>Net deferred tax liabilities</t>
+  </si>
+  <si>
     <t>Charged/(credited)</t>
   </si>
   <si>
-    <t>(a) Share capital</t>
-  </si>
-  <si>
-    <t>Ordinary shares</t>
-  </si>
-  <si>
     <t>Foreign currency translation</t>
   </si>
   <si>
@@ -251,22 +303,7 @@
     <t>Currency translation differences arising during the year</t>
   </si>
   <si>
-    <t>Balance 31 March</t>
-  </si>
-  <si>
-    <t>Balance 1 April</t>
-  </si>
-  <si>
-    <t>Net profit for the year</t>
-  </si>
-  <si>
-    <t>Franking credits available for subsequent reporting periods based on a tax rate of 30.0% (2022 30.0%)</t>
-  </si>
-  <si>
     <t>Movements in retained earnings were as follows:</t>
-  </si>
-  <si>
-    <t>Franked dividends</t>
   </si>
   <si>
     <t>Current tax on profits for the year</t>
@@ -789,6 +826,1849 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>7262779</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>1459220</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>8721999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>1631695</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <v>6217272</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>1045507</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>7262779</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>1775581</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>37105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>37105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>34680</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>18000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>18000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>2725</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2725</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>57830</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>57475</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>298944</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4">
+        <v>96756</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>453175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>3746</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>665310</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>28313</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>697369</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>-36252</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>-36252</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>-67214</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>-67214</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2">
+        <v>369</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3">
+        <v>3533</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5">
+        <v>3902</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6">
+        <v>-3902</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9">
+        <v>615</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10">
+        <v>615</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11">
+        <v>615</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <v>-246</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13">
+        <v>369</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>2023</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <v>25467389</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17">
+        <v>615</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19">
+        <v>428</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20">
+        <v>1057</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21">
+        <v>-1057</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24">
+        <v>-2461</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25">
+        <v>1057</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26">
+        <v>1057</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27">
+        <v>2845</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28">
+        <v>3902</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29">
+        <v>2022</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31">
+        <v>25467389</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>1945682</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3">
+        <v>-1255697</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4">
+        <v>3201379</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>1945682</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>7262779</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9">
+        <v>1459220</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>8721999</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>2023</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>1631695</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>-1255697</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15">
+        <v>-1673797</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>418100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17">
+        <v>-1255697</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20">
+        <v>6217272</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21">
+        <v>1045507</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22">
+        <v>7262779</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25">
+        <v>1775581</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -817,19 +2697,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C2">
         <v>400103</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>2023</v>
@@ -837,19 +2717,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <v>400103</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>2023</v>
@@ -857,19 +2737,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C4">
         <v>-3696</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>2023</v>
@@ -877,19 +2757,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>2845</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <v>2023</v>
@@ -897,19 +2777,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>-851</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6">
         <v>2023</v>
@@ -917,19 +2797,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>399252</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>2023</v>
@@ -940,16 +2820,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C8">
         <v>2023</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>2023</v>
@@ -960,16 +2840,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>2023</v>
@@ -977,19 +2857,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C10">
         <v>1858472</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10">
         <v>2023</v>
@@ -997,19 +2877,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C11">
         <v>557542</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>2023</v>
@@ -1017,19 +2897,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <v>35178</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F12">
         <v>2023</v>
@@ -1037,19 +2917,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C13">
         <v>-50057</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>2023</v>
@@ -1057,19 +2937,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C14">
         <v>-143411</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>2023</v>
@@ -1077,19 +2957,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C15">
         <v>399252</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F15">
         <v>2023</v>
@@ -1097,19 +2977,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C16">
         <v>261394</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>2022</v>
@@ -1117,19 +2997,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C17">
         <v>261394</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>2022</v>
@@ -1137,19 +3017,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C18">
         <v>-6236</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <v>2022</v>
@@ -1157,19 +3037,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C19">
         <v>-2461</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19">
         <v>2022</v>
@@ -1177,19 +3057,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <v>-8697</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <v>2022</v>
@@ -1197,19 +3077,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C21">
         <v>252697</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21">
         <v>2022</v>
@@ -1220,16 +3100,16 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C22">
         <v>2022</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>2022</v>
@@ -1240,16 +3120,16 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <v>2022</v>
@@ -1257,19 +3137,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C24">
         <v>1306901</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24">
         <v>2022</v>
@@ -1277,19 +3157,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C25">
         <v>392070</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F25">
         <v>2022</v>
@@ -1297,19 +3177,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C26">
         <v>17648</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F26">
         <v>2022</v>
@@ -1317,19 +3197,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C27">
         <v>-61637</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F27">
         <v>2022</v>
@@ -1337,19 +3217,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C28">
         <v>-95384</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>2022</v>
@@ -1357,19 +3237,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C29">
         <v>252697</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F29">
         <v>2022</v>
@@ -1380,7 +3260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -1407,7 +3287,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C2">
         <v>14502614</v>
@@ -1421,7 +3301,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>2368905</v>
@@ -1449,7 +3329,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1463,7 +3343,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2095,9 +3975,6 @@
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2">
         <v>16458</v>
       </c>
@@ -2112,9 +3989,6 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3">
         <v>21705</v>
       </c>
@@ -2129,9 +4003,6 @@
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4">
         <v>34467</v>
       </c>
@@ -2146,9 +4017,6 @@
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -2162,9 +4030,6 @@
     <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
       </c>
       <c r="C6">
         <v>34261</v>
@@ -2576,6 +4441,120 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>9370427</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>131964</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>9502391</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>9546820</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>89655</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>9636475</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2604,16 +4583,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2">
-        <v>57475</v>
+        <v>9004456</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>2023</v>
@@ -2621,16 +4600,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3">
-        <v>298944</v>
+        <v>131964</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>2023</v>
@@ -2638,16 +4617,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>96756</v>
+        <v>365971</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>2023</v>
@@ -2658,13 +4637,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>453175</v>
+        <v>9502391</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <v>2023</v>
@@ -2672,16 +4651,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>3746</v>
+        <v>9389282</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>2022</v>
@@ -2689,16 +4668,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7">
-        <v>665310</v>
+        <v>89655</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>2022</v>
@@ -2706,16 +4685,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8">
-        <v>28313</v>
+        <v>157538</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>2022</v>
@@ -2726,13 +4705,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>697369</v>
+        <v>9636475</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>2022</v>
@@ -2743,9 +4722,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2773,117 +4752,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>21675</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
         <v>49</v>
-      </c>
-      <c r="C2">
-        <v>-36252</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>-36252</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4">
-        <v>-67214</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>-67214</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2">
-        <v>369</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
       <c r="F2">
         <v>2023</v>
@@ -2893,14 +4771,14 @@
       <c r="A3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3">
-        <v>3533</v>
+      <c r="C3">
+        <v>33187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>2023</v>
@@ -2908,16 +4786,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>54862</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>2023</v>
@@ -2925,514 +4803,52 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5">
-        <v>3902</v>
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>17110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6">
-        <v>-3902</v>
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>31040</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F6">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>48150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9">
-        <v>615</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10">
-        <v>615</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11">
-        <v>615</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12">
-        <v>-246</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13">
-        <v>369</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14">
-        <v>2023</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16">
-        <v>25467389</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17">
-        <v>615</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19">
-        <v>428</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20">
-        <v>1057</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21">
-        <v>-1057</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24">
-        <v>-2461</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25">
-        <v>1057</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26">
-        <v>1057</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27">
-        <v>2845</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28">
-        <v>3902</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29">
-        <v>2022</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31">
-        <v>25467389</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31">
         <v>2022</v>
       </c>
     </row>
@@ -3443,7 +4859,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3468,13 +4884,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>1945682</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -3482,16 +4901,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C3">
-        <v>-1255697</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -3499,16 +4918,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C4">
-        <v>3201379</v>
+        <v>25467389</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -3516,355 +4935,103 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>1945682</v>
+        <v>2023</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>2023</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>25467389</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C8">
-        <v>7262779</v>
+        <v>2022</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C9">
-        <v>1459220</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C10">
-        <v>8721999</v>
+        <v>25467389</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11">
-        <v>2023</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13">
-        <v>1631695</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14">
-        <v>-1255697</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15">
-        <v>-1673797</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16">
-        <v>418100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17">
-        <v>-1255697</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18">
-        <v>2022</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20">
-        <v>6217272</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21">
-        <v>1045507</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22">
-        <v>7262779</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23">
-        <v>2022</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25">
-        <v>1775581</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25">
         <v>2022</v>
       </c>
     </row>
